--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hspg2-Col13a1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hspg2-Col13a1.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>197.1981153333333</v>
+        <v>155.8700226666667</v>
       </c>
       <c r="H2">
-        <v>591.594346</v>
+        <v>467.610068</v>
       </c>
       <c r="I2">
-        <v>0.5013718116429122</v>
+        <v>0.4627663557222626</v>
       </c>
       <c r="J2">
-        <v>0.5302871392468994</v>
+        <v>0.4864916976605717</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3015963333333334</v>
+        <v>0.1613523333333333</v>
       </c>
       <c r="N2">
-        <v>0.9047890000000001</v>
+        <v>0.484057</v>
       </c>
       <c r="O2">
-        <v>0.4737402899861982</v>
+        <v>0.2926766298022186</v>
       </c>
       <c r="P2">
-        <v>0.5687660179545673</v>
+        <v>0.3782017374917083</v>
       </c>
       <c r="Q2">
-        <v>59.47422852477712</v>
+        <v>25.14999185398623</v>
       </c>
       <c r="R2">
-        <v>535.2680567229941</v>
+        <v>226.349926685876</v>
       </c>
       <c r="S2">
-        <v>0.2375200274386187</v>
+        <v>0.1354408973786465</v>
       </c>
       <c r="T2">
-        <v>0.3016093045619781</v>
+        <v>0.183992005330519</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>197.1981153333333</v>
+        <v>155.8700226666667</v>
       </c>
       <c r="H3">
-        <v>591.594346</v>
+        <v>467.610068</v>
       </c>
       <c r="I3">
-        <v>0.5013718116429122</v>
+        <v>0.4627663557222626</v>
       </c>
       <c r="J3">
-        <v>0.5302871392468994</v>
+        <v>0.4864916976605717</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.047822</v>
       </c>
       <c r="O3">
-        <v>0.02503921704145383</v>
+        <v>0.02891473894686308</v>
       </c>
       <c r="P3">
-        <v>0.03006173650500096</v>
+        <v>0.03736411928828315</v>
       </c>
       <c r="Q3">
-        <v>3.143469423823556</v>
+        <v>2.484672074655112</v>
       </c>
       <c r="R3">
-        <v>28.291224814412</v>
+        <v>22.362048671896</v>
       </c>
       <c r="S3">
-        <v>0.01255395761019379</v>
+        <v>0.0133807683691004</v>
       </c>
       <c r="T3">
-        <v>0.01594135225203104</v>
+        <v>0.01817733382414898</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>197.1981153333333</v>
+        <v>155.8700226666667</v>
       </c>
       <c r="H4">
-        <v>591.594346</v>
+        <v>467.610068</v>
       </c>
       <c r="I4">
-        <v>0.5013718116429122</v>
+        <v>0.4627663557222626</v>
       </c>
       <c r="J4">
-        <v>0.5302871392468994</v>
+        <v>0.4864916976605717</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.319091</v>
+        <v>0.3740059999999999</v>
       </c>
       <c r="N4">
-        <v>0.638182</v>
+        <v>0.7480119999999999</v>
       </c>
       <c r="O4">
-        <v>0.5012204929723481</v>
+        <v>0.6784086312509182</v>
       </c>
       <c r="P4">
-        <v>0.4011722455404317</v>
+        <v>0.5844341432200085</v>
       </c>
       <c r="Q4">
-        <v>62.92414381982867</v>
+        <v>58.29632369746933</v>
       </c>
       <c r="R4">
-        <v>377.544862918972</v>
+        <v>349.777942184816</v>
       </c>
       <c r="S4">
-        <v>0.2512978265940997</v>
+        <v>0.3139446899745157</v>
       </c>
       <c r="T4">
-        <v>0.2127364824328902</v>
+        <v>0.2843223585059036</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>393.820518</v>
       </c>
       <c r="I5">
-        <v>0.3337599622221713</v>
+        <v>0.3897411505765819</v>
       </c>
       <c r="J5">
-        <v>0.3530087082119477</v>
+        <v>0.4097225989911443</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3015963333333334</v>
+        <v>0.1613523333333333</v>
       </c>
       <c r="N5">
-        <v>0.9047890000000001</v>
+        <v>0.484057</v>
       </c>
       <c r="O5">
-        <v>0.4737402899861982</v>
+        <v>0.2926766298022186</v>
       </c>
       <c r="P5">
-        <v>0.5687660179545673</v>
+        <v>0.3782017374917083</v>
       </c>
       <c r="Q5">
-        <v>39.59160807341134</v>
+        <v>21.18128649794733</v>
       </c>
       <c r="R5">
-        <v>356.324472660702</v>
+        <v>190.631578481526</v>
       </c>
       <c r="S5">
-        <v>0.158115541288914</v>
+        <v>0.114068126445993</v>
       </c>
       <c r="T5">
-        <v>0.2007793572729953</v>
+        <v>0.1549577988280692</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>393.820518</v>
       </c>
       <c r="I6">
-        <v>0.3337599622221713</v>
+        <v>0.3897411505765819</v>
       </c>
       <c r="J6">
-        <v>0.3530087082119477</v>
+        <v>0.4097225989911443</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,10 +812,10 @@
         <v>0.047822</v>
       </c>
       <c r="O6">
-        <v>0.02503921704145383</v>
+        <v>0.02891473894686308</v>
       </c>
       <c r="P6">
-        <v>0.03006173650500096</v>
+        <v>0.03736411928828315</v>
       </c>
       <c r="Q6">
         <v>2.092587201310667</v>
@@ -824,10 +824,10 @@
         <v>18.833284811796</v>
       </c>
       <c r="S6">
-        <v>0.008357088133828379</v>
+        <v>0.01126926362577192</v>
       </c>
       <c r="T6">
-        <v>0.01061205477023834</v>
+        <v>0.01530892406381052</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>393.820518</v>
       </c>
       <c r="I7">
-        <v>0.3337599622221713</v>
+        <v>0.3897411505765819</v>
       </c>
       <c r="J7">
-        <v>0.3530087082119477</v>
+        <v>0.4097225989911443</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.319091</v>
+        <v>0.3740059999999999</v>
       </c>
       <c r="N7">
-        <v>0.638182</v>
+        <v>0.7480119999999999</v>
       </c>
       <c r="O7">
-        <v>0.5012204929723481</v>
+        <v>0.6784086312509182</v>
       </c>
       <c r="P7">
-        <v>0.4011722455404317</v>
+        <v>0.5844341432200085</v>
       </c>
       <c r="Q7">
-        <v>41.888194303046</v>
+        <v>49.09707888503599</v>
       </c>
       <c r="R7">
-        <v>251.329165818276</v>
+        <v>294.582473310216</v>
       </c>
       <c r="S7">
-        <v>0.167287332799429</v>
+        <v>0.264403760504817</v>
       </c>
       <c r="T7">
-        <v>0.1416172961687141</v>
+        <v>0.2394558760992645</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.278468</v>
+        <v>0.2461213333333333</v>
       </c>
       <c r="H8">
-        <v>0.835404</v>
+        <v>0.738364</v>
       </c>
       <c r="I8">
-        <v>0.0007079986814710624</v>
+        <v>0.0007307156985262189</v>
       </c>
       <c r="J8">
-        <v>0.0007488306814808822</v>
+        <v>0.0007681784042585035</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.3015963333333334</v>
+        <v>0.1613523333333333</v>
       </c>
       <c r="N8">
-        <v>0.9047890000000001</v>
+        <v>0.484057</v>
       </c>
       <c r="O8">
-        <v>0.4737402899861982</v>
+        <v>0.2926766298022186</v>
       </c>
       <c r="P8">
-        <v>0.5687660179545673</v>
+        <v>0.3782017374917083</v>
       </c>
       <c r="Q8">
-        <v>0.08398492775066667</v>
+        <v>0.03971225141644445</v>
       </c>
       <c r="R8">
-        <v>0.755864349756</v>
+        <v>0.357410262748</v>
       </c>
       <c r="S8">
-        <v>0.000335407500669947</v>
+        <v>0.0002138634079882278</v>
       </c>
       <c r="T8">
-        <v>0.0004259094448280863</v>
+        <v>0.0002905264071941739</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.278468</v>
+        <v>0.2461213333333333</v>
       </c>
       <c r="H9">
-        <v>0.835404</v>
+        <v>0.738364</v>
       </c>
       <c r="I9">
-        <v>0.0007079986814710624</v>
+        <v>0.0007307156985262189</v>
       </c>
       <c r="J9">
-        <v>0.0007488306814808822</v>
+        <v>0.0007681784042585035</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -998,22 +998,22 @@
         <v>0.047822</v>
       </c>
       <c r="O9">
-        <v>0.02503921704145383</v>
+        <v>0.02891473894686308</v>
       </c>
       <c r="P9">
-        <v>0.03006173650500096</v>
+        <v>0.03736411928828315</v>
       </c>
       <c r="Q9">
-        <v>0.004438965565333334</v>
+        <v>0.003923338134222223</v>
       </c>
       <c r="R9">
-        <v>0.03995069008800001</v>
+        <v>0.03531004320800001</v>
       </c>
       <c r="S9">
-        <v>1.772773265041707E-05</v>
+        <v>2.112845366726032E-05</v>
       </c>
       <c r="T9">
-        <v>2.251115063353858E-05</v>
+        <v>2.870230953139772E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.278468</v>
+        <v>0.2461213333333333</v>
       </c>
       <c r="H10">
-        <v>0.835404</v>
+        <v>0.738364</v>
       </c>
       <c r="I10">
-        <v>0.0007079986814710624</v>
+        <v>0.0007307156985262189</v>
       </c>
       <c r="J10">
-        <v>0.0007488306814808822</v>
+        <v>0.0007681784042585035</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.319091</v>
+        <v>0.3740059999999999</v>
       </c>
       <c r="N10">
-        <v>0.638182</v>
+        <v>0.7480119999999999</v>
       </c>
       <c r="O10">
-        <v>0.5012204929723481</v>
+        <v>0.6784086312509182</v>
       </c>
       <c r="P10">
-        <v>0.4011722455404317</v>
+        <v>0.5844341432200085</v>
       </c>
       <c r="Q10">
-        <v>0.088856632588</v>
+        <v>0.09205085539466665</v>
       </c>
       <c r="R10">
-        <v>0.5331397955280001</v>
+        <v>0.5523051323679999</v>
       </c>
       <c r="S10">
-        <v>0.0003548634481506983</v>
+        <v>0.0004957238368707308</v>
       </c>
       <c r="T10">
-        <v>0.0003004100860192572</v>
+        <v>0.0004489496875329319</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>64.34001000000001</v>
+        <v>49.2786865</v>
       </c>
       <c r="H11">
-        <v>128.68002</v>
+        <v>98.557373</v>
       </c>
       <c r="I11">
-        <v>0.1635830409448661</v>
+        <v>0.1463047080910041</v>
       </c>
       <c r="J11">
-        <v>0.1153448476061565</v>
+        <v>0.1025370217386683</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3015963333333334</v>
+        <v>0.1613523333333333</v>
       </c>
       <c r="N11">
-        <v>0.9047890000000001</v>
+        <v>0.484057</v>
       </c>
       <c r="O11">
-        <v>0.4737402899861982</v>
+        <v>0.2926766298022186</v>
       </c>
       <c r="P11">
-        <v>0.5687660179545673</v>
+        <v>0.3782017374917083</v>
       </c>
       <c r="Q11">
-        <v>19.40471110263</v>
+        <v>7.951231050376834</v>
       </c>
       <c r="R11">
-        <v>116.42826661578</v>
+        <v>47.707386302261</v>
       </c>
       <c r="S11">
-        <v>0.07749587725404498</v>
+        <v>0.04281996888827247</v>
       </c>
       <c r="T11">
-        <v>0.06560422966453001</v>
+        <v>0.03877967977878943</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>64.34001000000001</v>
+        <v>49.2786865</v>
       </c>
       <c r="H12">
-        <v>128.68002</v>
+        <v>98.557373</v>
       </c>
       <c r="I12">
-        <v>0.1635830409448661</v>
+        <v>0.1463047080910041</v>
       </c>
       <c r="J12">
-        <v>0.1153448476061565</v>
+        <v>0.1025370217386683</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1184,22 +1184,22 @@
         <v>0.047822</v>
       </c>
       <c r="O12">
-        <v>0.02503921704145383</v>
+        <v>0.02891473894686308</v>
       </c>
       <c r="P12">
-        <v>0.03006173650500096</v>
+        <v>0.03736411928828315</v>
       </c>
       <c r="Q12">
-        <v>1.02562265274</v>
+        <v>0.7855351152676667</v>
       </c>
       <c r="R12">
-        <v>6.153735916440001</v>
+        <v>4.713210691606</v>
       </c>
       <c r="S12">
-        <v>0.004095991266519531</v>
+        <v>0.00423036244114839</v>
       </c>
       <c r="T12">
-        <v>0.003467466415945767</v>
+        <v>0.003831205511708886</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>64.34001000000001</v>
+        <v>49.2786865</v>
       </c>
       <c r="H13">
-        <v>128.68002</v>
+        <v>98.557373</v>
       </c>
       <c r="I13">
-        <v>0.1635830409448661</v>
+        <v>0.1463047080910041</v>
       </c>
       <c r="J13">
-        <v>0.1153448476061565</v>
+        <v>0.1025370217386683</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.319091</v>
+        <v>0.3740059999999999</v>
       </c>
       <c r="N13">
-        <v>0.638182</v>
+        <v>0.7480119999999999</v>
       </c>
       <c r="O13">
-        <v>0.5012204929723481</v>
+        <v>0.6784086312509182</v>
       </c>
       <c r="P13">
-        <v>0.4011722455404317</v>
+        <v>0.5844341432200085</v>
       </c>
       <c r="Q13">
-        <v>20.53031813091</v>
+        <v>18.430524423119</v>
       </c>
       <c r="R13">
-        <v>82.12127252364002</v>
+        <v>73.72209769247598</v>
       </c>
       <c r="S13">
-        <v>0.08199117242430158</v>
+        <v>0.09925437676158323</v>
       </c>
       <c r="T13">
-        <v>0.04627315152568068</v>
+        <v>0.05992613644817002</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2270173333333333</v>
+        <v>0.1539513333333333</v>
       </c>
       <c r="H14">
-        <v>0.681052</v>
+        <v>0.461854</v>
       </c>
       <c r="I14">
-        <v>0.0005771865085793579</v>
+        <v>0.0004570699116250634</v>
       </c>
       <c r="J14">
-        <v>0.0006104742535155658</v>
+        <v>0.0004805032053572586</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.3015963333333334</v>
+        <v>0.1613523333333333</v>
       </c>
       <c r="N14">
-        <v>0.9047890000000001</v>
+        <v>0.484057</v>
       </c>
       <c r="O14">
-        <v>0.4737402899861982</v>
+        <v>0.2926766298022186</v>
       </c>
       <c r="P14">
-        <v>0.5687660179545673</v>
+        <v>0.3782017374917083</v>
       </c>
       <c r="Q14">
-        <v>0.06846759533644445</v>
+        <v>0.02484040685311111</v>
       </c>
       <c r="R14">
-        <v>0.616208358028</v>
+        <v>0.223563661678</v>
       </c>
       <c r="S14">
-        <v>0.0002734365039505063</v>
+        <v>0.0001337736813184215</v>
       </c>
       <c r="T14">
-        <v>0.0003472170102358354</v>
+        <v>0.0001817271471364503</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2270173333333333</v>
+        <v>0.1539513333333333</v>
       </c>
       <c r="H15">
-        <v>0.681052</v>
+        <v>0.461854</v>
       </c>
       <c r="I15">
-        <v>0.0005771865085793579</v>
+        <v>0.0004570699116250634</v>
       </c>
       <c r="J15">
-        <v>0.0006104742535155658</v>
+        <v>0.0004805032053572586</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1370,22 +1370,22 @@
         <v>0.047822</v>
       </c>
       <c r="O15">
-        <v>0.02503921704145383</v>
+        <v>0.02891473894686308</v>
       </c>
       <c r="P15">
-        <v>0.03006173650500096</v>
+        <v>0.03736411928828315</v>
       </c>
       <c r="Q15">
-        <v>0.003618807638222222</v>
+        <v>0.002454086887555556</v>
       </c>
       <c r="R15">
-        <v>0.032569268744</v>
+        <v>0.022086781988</v>
       </c>
       <c r="S15">
-        <v>1.44522982617175E-05</v>
+        <v>1.321605717510448E-05</v>
       </c>
       <c r="T15">
-        <v>1.83519161522721E-05</v>
+        <v>1.795357908337102E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2270173333333333</v>
+        <v>0.1539513333333333</v>
       </c>
       <c r="H16">
-        <v>0.681052</v>
+        <v>0.461854</v>
       </c>
       <c r="I16">
-        <v>0.0005771865085793579</v>
+        <v>0.0004570699116250634</v>
       </c>
       <c r="J16">
-        <v>0.0006104742535155658</v>
+        <v>0.0004805032053572586</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.319091</v>
+        <v>0.3740059999999999</v>
       </c>
       <c r="N16">
-        <v>0.638182</v>
+        <v>0.7480119999999999</v>
       </c>
       <c r="O16">
-        <v>0.5012204929723481</v>
+        <v>0.6784086312509182</v>
       </c>
       <c r="P16">
-        <v>0.4011722455404317</v>
+        <v>0.5844341432200085</v>
       </c>
       <c r="Q16">
-        <v>0.07243918791066667</v>
+        <v>0.05757872237466666</v>
       </c>
       <c r="R16">
-        <v>0.434635127464</v>
+        <v>0.3454723342479999</v>
       </c>
       <c r="S16">
-        <v>0.0002892977063671342</v>
+        <v>0.0003100801731315374</v>
       </c>
       <c r="T16">
-        <v>0.0002449053271274583</v>
+        <v>0.0002808224791374372</v>
       </c>
     </row>
   </sheetData>
